--- a/Experiments/MakeGraph.xlsx
+++ b/Experiments/MakeGraph.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>SSIM</t>
   </si>
@@ -79,6 +79,51 @@
   </si>
   <si>
     <t>head1080_cells20_20</t>
+  </si>
+  <si>
+    <t>num_PCA</t>
+  </si>
+  <si>
+    <t>head720_cells10_19</t>
+  </si>
+  <si>
+    <t>head720_cells10_16</t>
+  </si>
+  <si>
+    <t>head720_cells10_13</t>
+  </si>
+  <si>
+    <t>head720_cells10_10</t>
+  </si>
+  <si>
+    <t>head720_cells10_7</t>
+  </si>
+  <si>
+    <t>head720_cells5_7</t>
+  </si>
+  <si>
+    <t>head720_cells5_6</t>
+  </si>
+  <si>
+    <t>head720_cells5_5</t>
+  </si>
+  <si>
+    <t>head720_cells5_4</t>
+  </si>
+  <si>
+    <t>head720_cells5_8</t>
+  </si>
+  <si>
+    <t>head720_cells30_65</t>
+  </si>
+  <si>
+    <t>head720_cells30_70</t>
+  </si>
+  <si>
+    <t>head720_cells30_75</t>
+  </si>
+  <si>
+    <t>head720_cells30_80</t>
   </si>
 </sst>
 </file>
@@ -179,7 +224,16 @@
               <a:rPr lang="en-US" sz="2800" b="1" baseline="0"/>
               <a:t> Dimension</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="2800" b="1"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr b="1"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" baseline="0"/>
+              <a:t>(Top figure of each point is the number of eigenvectors)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1800" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -227,8 +281,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0545012328132887"/>
-          <c:y val="0.158941015927414"/>
+          <c:x val="0.0535226509438128"/>
+          <c:y val="0.158941069198084"/>
           <c:w val="0.799237104718402"/>
           <c:h val="0.749367546465996"/>
         </c:manualLayout>
@@ -237,8 +291,88 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Re:720/Cell:10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.977</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.973</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.968</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.946</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$24:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>Re:720/Cell:20</c:v>
           </c:tx>
@@ -266,68 +400,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$10:$B$14</c:f>
+              <c:f>Sheet1!$B$16:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -351,7 +426,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$10:$C$14</c:f>
+              <c:f>Sheet1!$C$16:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -368,7 +443,7 @@
                   <c:v>11.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.0</c:v>
+                  <c:v>12.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -377,7 +452,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:v>Re:720/Cell:30</c:v>
           </c:tx>
@@ -406,68 +481,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:f>Sheet1!$B$6:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -491,7 +507,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:f>Sheet1!$C$6:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -517,7 +533,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:v>Re:1080/Cell:20</c:v>
           </c:tx>
@@ -545,68 +561,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$18:$B$22</c:f>
+              <c:f>Sheet1!$B$40:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -630,7 +587,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$18:$C$22</c:f>
+              <c:f>Sheet1!$C$40:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -655,19 +612,18 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1940586816"/>
-        <c:axId val="-2030278928"/>
+        <c:axId val="-594085056"/>
+        <c:axId val="-554766416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1940586816"/>
+        <c:axId val="-594085056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -736,6 +692,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -772,12 +729,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2030278928"/>
+        <c:crossAx val="-554766416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2030278928"/>
+        <c:axId val="-554766416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -898,7 +855,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1940586816"/>
+        <c:crossAx val="-594085056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -912,29 +869,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:legendEntry>
-        <c:idx val="0"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
       <c:legendEntry>
         <c:idx val="1"/>
         <c:txPr>
@@ -981,14 +915,37 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.836572625867975"/>
           <c:y val="0.368044087178682"/>
-          <c:w val="0.161950090031529"/>
-          <c:h val="0.268409735146743"/>
+          <c:w val="0.120069691045029"/>
+          <c:h val="0.182969698283488"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1004,7 +961,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1054,6 +1011,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1247,7 +1205,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1268,7 +1225,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:f>Sheet1!$B$6:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1292,7 +1249,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:f>Sheet1!$C$6:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1325,11 +1282,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1938515328"/>
-        <c:axId val="-1913052912"/>
+        <c:axId val="-594563584"/>
+        <c:axId val="-594561040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1938515328"/>
+        <c:axId val="-594563584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1434,12 +1391,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1913052912"/>
+        <c:crossAx val="-594561040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1913052912"/>
+        <c:axId val="-594561040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -1500,7 +1457,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1560,7 +1516,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1938515328"/>
+        <c:crossAx val="-594563584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2699,20 +2655,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>634999</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>75596</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>225777</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>14111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>423332</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>820904</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>52366</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="10" name="Chart 9"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -2733,6 +2689,871 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.1596</cdr:x>
+      <cdr:y>0.21777</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.18749</cdr:x>
+      <cdr:y>0.24738</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2071237" y="1601386"/>
+          <a:ext cx="362002" cy="217708"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>40</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00391</cdr:x>
+      <cdr:y>0.00691</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.03181</cdr:x>
+      <cdr:y>0.03651</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="50800" y="50800"/>
+          <a:ext cx="362002" cy="217708"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.25501</cdr:x>
+      <cdr:y>0.24402</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.28328</cdr:x>
+      <cdr:y>0.27027</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 4"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3299743" y="1794369"/>
+          <a:ext cx="365760" cy="193040"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>45</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.32489</cdr:x>
+      <cdr:y>0.27027</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.35002</cdr:x>
+      <cdr:y>0.30067</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="TextBox 5"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4203983" y="1987409"/>
+          <a:ext cx="325120" cy="223520"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>50</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.37279</cdr:x>
+      <cdr:y>0.29928</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.39949</cdr:x>
+      <cdr:y>0.33106</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="TextBox 6"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4823743" y="2200769"/>
+          <a:ext cx="345440" cy="233680"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>55</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.43011</cdr:x>
+      <cdr:y>0.31586</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.45602</cdr:x>
+      <cdr:y>0.34764</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="8" name="TextBox 7"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5565423" y="2322689"/>
+          <a:ext cx="335280" cy="233680"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>60</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.23146</cdr:x>
+      <cdr:y>0.3283</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.25423</cdr:x>
+      <cdr:y>0.35731</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="9" name="TextBox 8"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2994943" y="2414129"/>
+          <a:ext cx="294640" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.22441</cdr:x>
+      <cdr:y>0.33866</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.25622</cdr:x>
+      <cdr:y>0.36406</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="10" name="TextBox 9"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2921614" y="2503802"/>
+          <a:ext cx="414131" cy="187739"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>20</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.37201</cdr:x>
+      <cdr:y>0.38123</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.40339</cdr:x>
+      <cdr:y>0.40887</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="11" name="TextBox 10"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4843179" y="2818541"/>
+          <a:ext cx="408609" cy="204304"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>25</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.48147</cdr:x>
+      <cdr:y>0.41014</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.514</cdr:x>
+      <cdr:y>0.43903</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="12" name="TextBox 11"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6265333" y="3071518"/>
+          <a:ext cx="423334" cy="216370"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>30</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.56172</cdr:x>
+      <cdr:y>0.4629</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.59931</cdr:x>
+      <cdr:y>0.48928</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="13" name="TextBox 12"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7309556" y="3466630"/>
+          <a:ext cx="489185" cy="197555"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>35</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.61738</cdr:x>
+      <cdr:y>0.47923</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.64341</cdr:x>
+      <cdr:y>0.51692</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="14" name="TextBox 13"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8033927" y="3588926"/>
+          <a:ext cx="338666" cy="282222"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>40</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.3891</cdr:x>
+      <cdr:y>0.35616</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.42092</cdr:x>
+      <cdr:y>0.38149</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="15" name="TextBox 14"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5074357" y="2619022"/>
+          <a:ext cx="414866" cy="186266"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.57543</cdr:x>
+      <cdr:y>0.36652</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.60789</cdr:x>
+      <cdr:y>0.39416</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="16" name="TextBox 15"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7504290" y="2695222"/>
+          <a:ext cx="423333" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.57543</cdr:x>
+      <cdr:y>0.36422</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.60465</cdr:x>
+      <cdr:y>0.39646</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="18" name="TextBox 17"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7504290" y="2678289"/>
+          <a:ext cx="381000" cy="237067"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.68061</cdr:x>
+      <cdr:y>0.3907</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.71112</cdr:x>
+      <cdr:y>0.42179</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="19" name="TextBox 18"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8875890" y="2873022"/>
+          <a:ext cx="397933" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>13</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.74683</cdr:x>
+      <cdr:y>0.42409</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.78124</cdr:x>
+      <cdr:y>0.44827</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="20" name="TextBox 19"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="9739490" y="3118555"/>
+          <a:ext cx="448734" cy="177800"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>16</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.80266</cdr:x>
+      <cdr:y>0.45288</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.82993</cdr:x>
+      <cdr:y>0.48051</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="21" name="TextBox 20"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="10467624" y="3330223"/>
+          <a:ext cx="355600" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>19</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.44001</cdr:x>
+      <cdr:y>0.61353</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.46899</cdr:x>
+      <cdr:y>0.65372</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="22" name="TextBox 21"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5728498" y="4495309"/>
+          <a:ext cx="377319" cy="294493"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>20</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.54816</cdr:x>
+      <cdr:y>0.64493</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.57785</cdr:x>
+      <cdr:y>0.68136</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="23" name="TextBox 22"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7136541" y="4725382"/>
+          <a:ext cx="386522" cy="266884"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>25</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.6139</cdr:x>
+      <cdr:y>0.65624</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.64218</cdr:x>
+      <cdr:y>0.68889</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="24" name="TextBox 23"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7992411" y="4808208"/>
+          <a:ext cx="368116" cy="239275"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>30</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.66692</cdr:x>
+      <cdr:y>0.68512</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.70014</cdr:x>
+      <cdr:y>0.71653</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="25" name="TextBox 24"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8682629" y="5019874"/>
+          <a:ext cx="432536" cy="230073"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>35</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.72135</cdr:x>
+      <cdr:y>0.69517</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.74962</cdr:x>
+      <cdr:y>0.7316</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="26" name="TextBox 25"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="9391252" y="5093498"/>
+          <a:ext cx="368116" cy="266884"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>40</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3032,10 +3853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="89" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3043,193 +3864,426 @@
     <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B6">
         <v>0.94899999999999995</v>
       </c>
-      <c r="C2">
+      <c r="C6">
         <v>13.3</v>
       </c>
+      <c r="D6">
+        <v>60</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B7">
         <v>0.94499999999999995</v>
       </c>
-      <c r="C3">
+      <c r="C7">
         <v>13.8</v>
       </c>
+      <c r="D7">
+        <v>55</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B8">
         <v>0.94099999999999995</v>
       </c>
-      <c r="C4">
+      <c r="C8">
         <v>14.5</v>
       </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B9">
         <v>0.93600000000000005</v>
       </c>
-      <c r="C5">
+      <c r="C9">
         <v>15.1</v>
       </c>
+      <c r="D9">
+        <v>45</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B10">
         <v>0.92900000000000005</v>
       </c>
-      <c r="C6">
+      <c r="C10">
         <v>15.7</v>
       </c>
+      <c r="D10">
+        <v>40</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>0</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C15" t="s">
         <v>1</v>
       </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
+      <c r="B16">
         <v>0.96299999999999997</v>
       </c>
-      <c r="C10">
+      <c r="C16">
         <v>9.5</v>
       </c>
+      <c r="D16">
+        <v>40</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="B17">
         <v>0.95899999999999996</v>
       </c>
-      <c r="C11">
+      <c r="C17">
         <v>10</v>
       </c>
+      <c r="D17">
+        <v>35</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
+      <c r="B18">
         <v>0.95299999999999996</v>
       </c>
-      <c r="C12">
+      <c r="C18">
         <v>11.2</v>
       </c>
+      <c r="D18">
+        <v>30</v>
+      </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
+      <c r="B19">
         <v>0.94499999999999995</v>
       </c>
-      <c r="C13">
+      <c r="C19">
         <v>11.9</v>
       </c>
+      <c r="D19">
+        <v>25</v>
+      </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
+      <c r="B20">
         <v>0.93400000000000005</v>
       </c>
-      <c r="C14">
+      <c r="C20">
+        <v>12.9</v>
+      </c>
+      <c r="D20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="C24">
+        <v>10.1</v>
+      </c>
+      <c r="D24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="C25">
+        <v>10.7</v>
+      </c>
+      <c r="D25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="C26">
+        <v>11.5</v>
+      </c>
+      <c r="D26">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27">
+        <v>0.96</v>
+      </c>
+      <c r="C27">
+        <v>12.2</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="C28">
+        <v>13.3</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32">
+        <v>7.28</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33">
+        <v>7.48</v>
+      </c>
+      <c r="D33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34">
+        <v>7.29</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35">
+        <v>7.35</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36">
+        <v>7.33</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="C40">
+        <v>4.3</v>
+      </c>
+      <c r="D40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="C41">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D41">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>14</v>
       </c>
+      <c r="B42">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="C42">
+        <v>5.2</v>
+      </c>
+      <c r="D42">
+        <v>30</v>
+      </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1</v>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="C43">
+        <v>5.5</v>
+      </c>
+      <c r="D43">
+        <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18">
-        <v>0.97099999999999997</v>
-      </c>
-      <c r="C18">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="C19">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20">
-        <v>0.96299999999999997</v>
-      </c>
-      <c r="C20">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21">
-        <v>0.95799999999999996</v>
-      </c>
-      <c r="C21">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>16</v>
       </c>
-      <c r="B22">
+      <c r="B44">
         <v>0.95</v>
       </c>
-      <c r="C22">
+      <c r="C44">
         <v>6.2</v>
+      </c>
+      <c r="D44">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3243,7 +4297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" zoomScale="75" workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>

--- a/Experiments/MakeGraph.xlsx
+++ b/Experiments/MakeGraph.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>SSIM</t>
   </si>
@@ -39,13 +39,7 @@
     <t>head720_cells30_60</t>
   </si>
   <si>
-    <t>head720_cells30_55</t>
-  </si>
-  <si>
     <t>head720_cells30_50</t>
-  </si>
-  <si>
-    <t>head720_cells30_45</t>
   </si>
   <si>
     <t>head720_cells30_40</t>
@@ -58,12 +52,6 @@
   </si>
   <si>
     <t>head720_cells20_30</t>
-  </si>
-  <si>
-    <t>head720_cells20_25</t>
-  </si>
-  <si>
-    <t>head720_cells20_20</t>
   </si>
   <si>
     <t>head1080_cells20_40</t>
@@ -114,16 +102,19 @@
     <t>head720_cells5_8</t>
   </si>
   <si>
-    <t>head720_cells30_65</t>
-  </si>
-  <si>
     <t>head720_cells30_70</t>
   </si>
   <si>
-    <t>head720_cells30_75</t>
+    <t>head720_cells30_80</t>
   </si>
   <si>
-    <t>head720_cells30_80</t>
+    <t>head720_cells20_45</t>
+  </si>
+  <si>
+    <t>head720_cells20_50</t>
+  </si>
+  <si>
+    <t>head720_cells20_55</t>
   </si>
 </sst>
 </file>
@@ -415,12 +406,6 @@
                 <c:pt idx="2">
                   <c:v>0.953</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.945</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.934</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -438,12 +423,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -483,23 +462,17 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$B$10</c:f>
+              <c:f>Sheet1!$B$4:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.949</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.945</c:v>
+                  <c:v>0.941</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.941</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.936</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0.929</c:v>
                 </c:pt>
               </c:numCache>
@@ -507,23 +480,17 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$6:$C$10</c:f>
+              <c:f>Sheet1!$C$4:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>13.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.8</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>15.7</c:v>
                 </c:pt>
               </c:numCache>
@@ -619,11 +586,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-594085056"/>
-        <c:axId val="-554766416"/>
+        <c:axId val="-560259328"/>
+        <c:axId val="-560684192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-594085056"/>
+        <c:axId val="-560259328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -729,12 +696,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-554766416"/>
+        <c:crossAx val="-560684192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-554766416"/>
+        <c:axId val="-560684192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -855,7 +822,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-594085056"/>
+        <c:crossAx val="-560259328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1225,23 +1192,17 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$B$10</c:f>
+              <c:f>Sheet1!$B$4:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.949</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.945</c:v>
+                  <c:v>0.941</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.941</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.936</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0.929</c:v>
                 </c:pt>
               </c:numCache>
@@ -1249,23 +1210,17 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$6:$C$10</c:f>
+              <c:f>Sheet1!$C$4:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>13.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.8</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>15.7</c:v>
                 </c:pt>
               </c:numCache>
@@ -1282,11 +1237,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-594563584"/>
-        <c:axId val="-594561040"/>
+        <c:axId val="-460677760"/>
+        <c:axId val="-461083648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-594563584"/>
+        <c:axId val="-460677760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1391,12 +1346,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-594561040"/>
+        <c:crossAx val="-461083648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-594561040"/>
+        <c:axId val="-461083648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -1516,7 +1471,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-594563584"/>
+        <c:crossAx val="-460677760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2823,41 +2778,6 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.25501</cdr:x>
-      <cdr:y>0.24402</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.28328</cdr:x>
-      <cdr:y>0.27027</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="5" name="TextBox 4"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3299743" y="1794369"/>
-          <a:ext cx="365760" cy="193040"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>45</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
       <cdr:x>0.32489</cdr:x>
       <cdr:y>0.27027</cdr:y>
     </cdr:from>
@@ -2886,41 +2806,6 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>50</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.37279</cdr:x>
-      <cdr:y>0.29928</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.39949</cdr:x>
-      <cdr:y>0.33106</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="7" name="TextBox 6"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4823743" y="2200769"/>
-          <a:ext cx="345440" cy="233680"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>55</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -2989,76 +2874,6 @@
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.22441</cdr:x>
-      <cdr:y>0.33866</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.25622</cdr:x>
-      <cdr:y>0.36406</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="10" name="TextBox 9"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2921614" y="2503802"/>
-          <a:ext cx="414131" cy="187739"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>20</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.37201</cdr:x>
-      <cdr:y>0.38123</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.40339</cdr:x>
-      <cdr:y>0.40887</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="11" name="TextBox 10"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4843179" y="2818541"/>
-          <a:ext cx="408609" cy="204304"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>25</a:t>
-          </a:r>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
@@ -3855,8 +3670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="89" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A4" zoomScale="89" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3872,12 +3687,12 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>80</v>
@@ -3885,112 +3700,83 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="C4">
+        <v>13.3</v>
       </c>
       <c r="D4">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="C5">
+        <v>14.5</v>
       </c>
       <c r="D5">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>0.94899999999999995</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="C6">
-        <v>13.3</v>
+        <v>15.7</v>
       </c>
       <c r="D6">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="C7">
-        <v>13.8</v>
-      </c>
-      <c r="D7">
-        <v>55</v>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="C8">
-        <v>14.5</v>
-      </c>
-      <c r="D8">
-        <v>50</v>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="C9">
-        <v>15.1</v>
-      </c>
-      <c r="D9">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="C10">
-        <v>15.7</v>
-      </c>
-      <c r="D10">
-        <v>40</v>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
+      <c r="A15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B16">
         <v>0.96299999999999997</v>
@@ -4004,7 +3790,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B17">
         <v>0.95899999999999996</v>
@@ -4018,7 +3804,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B18">
         <v>0.95299999999999996</v>
@@ -4028,34 +3814,6 @@
       </c>
       <c r="D18">
         <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="C19">
-        <v>11.9</v>
-      </c>
-      <c r="D19">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="C20">
-        <v>12.9</v>
-      </c>
-      <c r="D20">
-        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -4066,12 +3824,12 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B24">
         <v>0.97699999999999998</v>
@@ -4085,7 +3843,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B25">
         <v>0.97299999999999998</v>
@@ -4099,7 +3857,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B26">
         <v>0.96799999999999997</v>
@@ -4113,7 +3871,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B27">
         <v>0.96</v>
@@ -4127,7 +3885,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B28">
         <v>0.94599999999999995</v>
@@ -4147,12 +3905,12 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C32">
         <v>7.28</v>
@@ -4163,7 +3921,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C33">
         <v>7.48</v>
@@ -4174,7 +3932,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C34">
         <v>7.29</v>
@@ -4185,7 +3943,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C35">
         <v>7.35</v>
@@ -4196,7 +3954,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C36">
         <v>7.33</v>
@@ -4213,12 +3971,12 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B40">
         <v>0.97099999999999997</v>
@@ -4232,7 +3990,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B41">
         <v>0.96699999999999997</v>
@@ -4246,7 +4004,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B42">
         <v>0.96299999999999997</v>
@@ -4260,7 +4018,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B43">
         <v>0.95799999999999996</v>
@@ -4274,7 +4032,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B44">
         <v>0.95</v>

--- a/Experiments/MakeGraph.xlsx
+++ b/Experiments/MakeGraph.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>SSIM</t>
   </si>
@@ -116,6 +116,18 @@
   <si>
     <t>head720_cells20_55</t>
   </si>
+  <si>
+    <t>36 images with 300*300 resolution (Cells dimension 20*20)</t>
+  </si>
+  <si>
+    <t>Normal CPU calculation</t>
+  </si>
+  <si>
+    <t>Speeding up with Cuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (num_components)</t>
+  </si>
 </sst>
 </file>
 
@@ -150,8 +162,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,11 +604,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-560259328"/>
-        <c:axId val="-560684192"/>
+        <c:axId val="-458751056"/>
+        <c:axId val="-629244048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-560259328"/>
+        <c:axId val="-458751056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -696,12 +714,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-560684192"/>
+        <c:crossAx val="-629244048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-560684192"/>
+        <c:axId val="-629244048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -762,7 +780,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -822,7 +839,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-560259328"/>
+        <c:crossAx val="-458751056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -996,252 +1013,150 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1"/>
-              <a:t>Head Data Set 720</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-              <a:t>*720 </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:defRPr b="1"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-              <a:t>with C</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1"/>
-              <a:t>ells</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-              <a:t> Dimension </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
-              <a:t>30*30</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1400" b="1"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.375829542568176"/>
-          <c:y val="0.04052345840633"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.151400481189851"/>
-          <c:y val="0.170648148148148"/>
-          <c:w val="0.79033573928259"/>
-          <c:h val="0.612206911636045"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>FPS</c:v>
+            <c:strRef>
+              <c:f>Sheet2!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Normal CPU calculation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:prstDash val="dashDot"/>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:f>Sheet2!$A$5:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.949</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.941</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.929</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$9</c:f>
+              <c:f>Sheet2!$B$5:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>13.3</c:v>
+                  <c:v>7.82</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.5</c:v>
+                  <c:v>8.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.7</c:v>
+                  <c:v>10.34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Speeding up with Cuda</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$5:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$5:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-460677760"/>
-        <c:axId val="-461083648"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-460677760"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-522599248"/>
+        <c:axId val="-523195232"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-522599248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1254,7 +1169,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1267,20 +1182,18 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>SSIM</a:t>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Number</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                  <a:t> of components used in PCA</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.502374236309741"/>
-              <c:y val="0.867182947056978"/>
-            </c:manualLayout>
-          </c:layout>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1294,7 +1207,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1310,6 +1223,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1331,7 +1245,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1346,15 +1260,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-461083648"/>
+        <c:crossAx val="-523195232"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="-461083648"/>
+        <c:axId val="-523195232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1393,7 +1309,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1406,12 +1322,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="1"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>FPS</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1425,7 +1342,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1441,6 +1358,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1456,7 +1374,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1471,9 +1389,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-460677760"/>
+        <c:crossAx val="-522599248"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1483,6 +1401,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3372,23 +3322,21 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>172720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3670,7 +3618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A4" zoomScale="89" workbookViewId="0">
+    <sheetView showRuler="0" zoomScale="75" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -4053,14 +4001,79 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="75" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A3" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7.82</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10.34</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Experiments/MakeGraph.xlsx
+++ b/Experiments/MakeGraph.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
   <si>
     <t>SSIM</t>
   </si>
@@ -200,6 +200,15 @@
   <si>
     <t>cell_30</t>
   </si>
+  <si>
+    <t>head720_cells30_90</t>
+  </si>
+  <si>
+    <t>head720_cells20_60</t>
+  </si>
+  <si>
+    <t>head720_cells20_25</t>
+  </si>
 </sst>
 </file>
 
@@ -270,15 +279,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -529,10 +538,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$16:$B$20</c:f>
+              <c:f>Sheet1!$B$17:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.963</c:v>
                 </c:pt>
@@ -541,24 +550,30 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.953</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$16:$C$20</c:f>
+              <c:f>Sheet1!$C$17:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.5</c:v>
+                  <c:v>9.24</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -598,10 +613,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:f>Sheet1!$B$5:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.949</c:v>
                 </c:pt>
@@ -609,17 +624,17 @@
                   <c:v>0.941</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.929</c:v>
+                  <c:v>0.937</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$9</c:f>
+              <c:f>Sheet1!$C$5:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>13.3</c:v>
                 </c:pt>
@@ -722,11 +737,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1089250992"/>
-        <c:axId val="-1169197072"/>
+        <c:axId val="697600960"/>
+        <c:axId val="698606304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1089250992"/>
+        <c:axId val="697600960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -832,12 +847,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1169197072"/>
+        <c:crossAx val="698606304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1169197072"/>
+        <c:axId val="698606304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -958,7 +973,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1089250992"/>
+        <c:crossAx val="697600960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1133,6 +1148,624 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Kernel Size Comparison For Median Blur cell(30)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.137376579199283"/>
+          <c:y val="0.134252758036097"/>
+          <c:w val="0.825409232451871"/>
+          <c:h val="0.611930397457772"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$B$26:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$27:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.956952580564</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.964489529695</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.970231595315</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.974944808888</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$B$26:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$28:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.958624254652</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.965782136843</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.971127241549</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.975458652496</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$B$26:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$29:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.956946334987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96361196141</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.968525931264</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.972528283193</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="700661568"/>
+        <c:axId val="628202448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="700661568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Components</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.399910224433422"/>
+              <c:y val="0.813971374771255"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="628202448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="628202448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>SSIM</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0209329809462257"/>
+              <c:y val="0.409429039095667"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="700661568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.437192357978515"/>
+          <c:y val="0.89258432895552"/>
+          <c:w val="0.121848742596318"/>
+          <c:h val="0.0788093480773056"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1302,11 +1935,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1018746512"/>
-        <c:axId val="-1020435520"/>
+        <c:axId val="697187584"/>
+        <c:axId val="697189904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1018746512"/>
+        <c:axId val="697187584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1349,7 +1982,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1020435520"/>
+        <c:crossAx val="697189904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1357,7 +1990,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1020435520"/>
+        <c:axId val="697189904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1407,7 +2040,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1018746512"/>
+        <c:crossAx val="697187584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1502,6 +2135,823 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(Top figure of each point is the number of eigenvectors)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Cells 30*30</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.964</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.956</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.949</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.941</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.937</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Cells 20*20</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.974</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.972</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.967</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.963</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.959</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.953</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.945</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$13:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Cells 10*10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.977</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.973</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.968</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.946</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$24:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Cells 5*5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$32:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.977</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.973</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.967</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$32:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.273</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.314</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.484</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.492</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="627707376"/>
+        <c:axId val="627705600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="627707376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>SSIM</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="627705600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="627705600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>FPS</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="627707376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
@@ -1641,11 +3091,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1169183472"/>
-        <c:axId val="-1169180080"/>
+        <c:axId val="698704528"/>
+        <c:axId val="698707376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1169183472"/>
+        <c:axId val="698704528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1682,7 +3132,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1749,7 +3198,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1169180080"/>
+        <c:crossAx val="698707376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1757,7 +3206,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1169180080"/>
+        <c:axId val="698707376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1817,7 +3266,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1878,7 +3326,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1169183472"/>
+        <c:crossAx val="698704528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1892,7 +3340,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1959,7 +3406,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2004,7 +3451,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2244,11 +3690,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1131606960"/>
-        <c:axId val="-1089161968"/>
+        <c:axId val="697731312"/>
+        <c:axId val="697722320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1131606960"/>
+        <c:axId val="697731312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2359,7 +3805,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1089161968"/>
+        <c:crossAx val="697722320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2367,7 +3813,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1089161968"/>
+        <c:axId val="697722320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2480,7 +3926,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1131606960"/>
+        <c:crossAx val="697731312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2494,7 +3940,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2561,7 +4006,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2606,7 +4051,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2864,11 +4308,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1166147232"/>
-        <c:axId val="-1166145456"/>
+        <c:axId val="698297904"/>
+        <c:axId val="698107360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1166147232"/>
+        <c:axId val="698297904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2979,7 +4423,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1166145456"/>
+        <c:crossAx val="698107360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2987,7 +4431,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1166145456"/>
+        <c:axId val="698107360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3100,7 +4544,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1166147232"/>
+        <c:crossAx val="698297904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3190,7 +4634,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3244,7 +4688,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3435,11 +4878,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1049295312"/>
-        <c:axId val="-1052896384"/>
+        <c:axId val="698679680"/>
+        <c:axId val="697907088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1049295312"/>
+        <c:axId val="698679680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3550,7 +4993,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1052896384"/>
+        <c:crossAx val="697907088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3558,7 +5001,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1052896384"/>
+        <c:axId val="697907088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3604,7 +5047,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3665,7 +5107,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1049295312"/>
+        <c:crossAx val="698679680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3755,7 +5197,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4015,11 +5457,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1052820064"/>
-        <c:axId val="-1022650784"/>
+        <c:axId val="698964976"/>
+        <c:axId val="698968368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1052820064"/>
+        <c:axId val="698964976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4125,7 +5567,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1022650784"/>
+        <c:crossAx val="698968368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4133,7 +5575,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1022650784"/>
+        <c:axId val="698968368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4179,7 +5621,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4239,7 +5680,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1052820064"/>
+        <c:crossAx val="698964976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4329,7 +5770,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4380,7 +5821,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4571,11 +6011,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1050336272"/>
-        <c:axId val="-1050491536"/>
+        <c:axId val="629102784"/>
+        <c:axId val="629105632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1050336272"/>
+        <c:axId val="629102784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4681,7 +6121,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1050491536"/>
+        <c:crossAx val="629105632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4689,7 +6129,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1050491536"/>
+        <c:axId val="629105632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4735,7 +6175,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4795,7 +6234,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1050336272"/>
+        <c:crossAx val="629102784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4885,7 +6324,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4930,7 +6369,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5188,11 +6626,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1023203856"/>
-        <c:axId val="-1022751856"/>
+        <c:axId val="629055808"/>
+        <c:axId val="629059200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1023203856"/>
+        <c:axId val="629055808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5303,7 +6741,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1022751856"/>
+        <c:crossAx val="629059200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5311,7 +6749,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1022751856"/>
+        <c:axId val="629059200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5424,7 +6862,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1023203856"/>
+        <c:crossAx val="629055808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5438,626 +6876,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Kernel Size Comparison For Median Blur cell(30)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.137376579199283"/>
-          <c:y val="0.134252758036097"/>
-          <c:w val="0.825409232451871"/>
-          <c:h val="0.611930397457772"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$A$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet4!$B$26:$E$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>90.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet4!$B$27:$E$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.956952580564</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.964489529695</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.970231595315</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.974944808888</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet4!$B$26:$E$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>90.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet4!$B$28:$E$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.958624254652</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.965782136843</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.971127241549</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.975458652496</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$A$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet4!$B$26:$E$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>90.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet4!$B$29:$E$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.956946334987</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.96361196141</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.968525931264</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.972528283193</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-1168787280"/>
-        <c:axId val="-1087987616"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-1168787280"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Number of Components</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.399910224433422"/>
-              <c:y val="0.813971374771255"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1087987616"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-1087987616"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>SSIM</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.0209329809462257"/>
-              <c:y val="0.409429039095667"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1168787280"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.437192357978515"/>
-          <c:y val="0.89258432895552"/>
-          <c:w val="0.121848742596318"/>
-          <c:h val="0.0788093480773056"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6165,6 +6983,46 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7530,7 +8388,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8033,6 +8891,485 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -11558,16 +12895,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>225777</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>14111</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>389467</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>820904</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>52366</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>295972</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>67733</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11583,6 +12920,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7780</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>180754</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95957</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12317,6 +13684,2429 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.15106</cdr:x>
+      <cdr:y>0.14676</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.19164</cdr:x>
+      <cdr:y>0.182</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1780385" y="1087656"/>
+          <a:ext cx="478175" cy="261160"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>40</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.21264</cdr:x>
+      <cdr:y>0.20449</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.25322</cdr:x>
+      <cdr:y>0.23973</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2506133" y="1515533"/>
+          <a:ext cx="478175" cy="261160"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>50</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.33046</cdr:x>
+      <cdr:y>0.26047</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.37103</cdr:x>
+      <cdr:y>0.29571</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 3"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3894667" y="1930400"/>
+          <a:ext cx="478175" cy="261160"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>60</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.43894</cdr:x>
+      <cdr:y>0.33473</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.46743</cdr:x>
+      <cdr:y>0.36558</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 4"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5173135" y="2480733"/>
+          <a:ext cx="335846" cy="228601"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>70</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.49446</cdr:x>
+      <cdr:y>0.40442</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.52296</cdr:x>
+      <cdr:y>0.43526</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="TextBox 6"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5780631" y="2997200"/>
+          <a:ext cx="333144" cy="228601"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>80</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.55533</cdr:x>
+      <cdr:y>0.43732</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.58406</cdr:x>
+      <cdr:y>0.46816</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="8" name="TextBox 7"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6492240" y="3241040"/>
+          <a:ext cx="335846" cy="228601"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>90</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.28158</cdr:x>
+      <cdr:y>0.2687</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.3103</cdr:x>
+      <cdr:y>0.29954</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="9" name="TextBox 8"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3291840" y="1991360"/>
+          <a:ext cx="335846" cy="228601"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.4932</cdr:x>
+      <cdr:y>0.30994</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.52192</cdr:x>
+      <cdr:y>0.34078</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="11" name="TextBox 10"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5771521" y="2327647"/>
+          <a:ext cx="336178" cy="231650"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.61401</cdr:x>
+      <cdr:y>0.34359</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.64274</cdr:x>
+      <cdr:y>0.37444</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="12" name="TextBox 11"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7218840" y="2532122"/>
+          <a:ext cx="337747" cy="227319"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>13</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.68928</cdr:x>
+      <cdr:y>0.37766</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.71787</cdr:x>
+      <cdr:y>0.4091</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="13" name="TextBox 12"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8103754" y="2783224"/>
+          <a:ext cx="336178" cy="231650"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>16</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.74983</cdr:x>
+      <cdr:y>0.40638</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.77843</cdr:x>
+      <cdr:y>0.43782</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="14" name="TextBox 13"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8815724" y="2994891"/>
+          <a:ext cx="336178" cy="231650"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>19</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.26946</cdr:x>
+      <cdr:y>0.32022</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.29806</cdr:x>
+      <cdr:y>0.35165</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="15" name="TextBox 14"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3168073" y="2359891"/>
+          <a:ext cx="336178" cy="231650"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>25</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.38812</cdr:x>
+      <cdr:y>0.35677</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.41672</cdr:x>
+      <cdr:y>0.38821</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="16" name="TextBox 15"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4563148" y="2629284"/>
+          <a:ext cx="336178" cy="231650"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>30</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.47405</cdr:x>
+      <cdr:y>0.4103</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.50264</cdr:x>
+      <cdr:y>0.44173</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="17" name="TextBox 16"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5573376" y="3023754"/>
+          <a:ext cx="336178" cy="231650"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>35</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.53052</cdr:x>
+      <cdr:y>0.47166</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.55911</cdr:x>
+      <cdr:y>0.50309</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="18" name="TextBox 17"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6237239" y="3475952"/>
+          <a:ext cx="336178" cy="231650"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>40</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.59844</cdr:x>
+      <cdr:y>0.47427</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.62703</cdr:x>
+      <cdr:y>0.50571</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="19" name="TextBox 18"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7035800" y="3495193"/>
+          <a:ext cx="336178" cy="231650"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>45</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.63192</cdr:x>
+      <cdr:y>0.49088</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.66051</cdr:x>
+      <cdr:y>0.52231</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="20" name="TextBox 19"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7429415" y="3617576"/>
+          <a:ext cx="336178" cy="231650"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>50</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.67455</cdr:x>
+      <cdr:y>0.52519</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.70314</cdr:x>
+      <cdr:y>0.55662</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="21" name="TextBox 20"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7930573" y="3870421"/>
+          <a:ext cx="336178" cy="231650"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>55</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.70564</cdr:x>
+      <cdr:y>0.56696</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.73424</cdr:x>
+      <cdr:y>0.5984</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="22" name="TextBox 21"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8296179" y="4178300"/>
+          <a:ext cx="336178" cy="231650"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>60</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.60171</cdr:x>
+      <cdr:y>0.52649</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.63031</cdr:x>
+      <cdr:y>0.55793</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="23" name="TextBox 22"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7074285" y="3880043"/>
+          <a:ext cx="336178" cy="231650"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.6991</cdr:x>
+      <cdr:y>0.5278</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.72769</cdr:x>
+      <cdr:y>0.55923</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="24" name="TextBox 23"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8219209" y="3889663"/>
+          <a:ext cx="336178" cy="231650"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.75311</cdr:x>
+      <cdr:y>0.53266</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.79068</cdr:x>
+      <cdr:y>0.58618</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="25" name="TextBox 24"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8854210" y="3925456"/>
+          <a:ext cx="441722" cy="394469"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.7973</cdr:x>
+      <cdr:y>0.5372</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.83487</cdr:x>
+      <cdr:y>0.59073</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="26" name="TextBox 25"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="9328909" y="4100039"/>
+          <a:ext cx="439609" cy="408527"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.82758</cdr:x>
+      <cdr:y>0.53903</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.86515</cdr:x>
+      <cdr:y>0.59256</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="27" name="TextBox 26"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="9683191" y="4113995"/>
+          <a:ext cx="439609" cy="408527"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12351,7 +16141,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12566,7 +16356,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12866,8 +16656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="81" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12888,59 +16678,85 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>56</v>
+      </c>
+      <c r="B2">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="C2">
+        <v>9.4</v>
       </c>
       <c r="D2">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>0.96</v>
+      </c>
+      <c r="C3">
+        <v>10.1</v>
       </c>
       <c r="D3">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B4">
-        <v>0.94899999999999995</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="C4">
-        <v>13.3</v>
+        <v>11.7</v>
       </c>
       <c r="D4">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>0.94099999999999995</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="C5">
-        <v>14.5</v>
+        <v>13.3</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="C6">
+        <v>14.5</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="C6">
+      <c r="B7">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="C7">
         <v>15.7</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>40</v>
       </c>
     </row>
@@ -12957,59 +16773,114 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>57</v>
+      </c>
+      <c r="B13">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="C13">
+        <v>7.29</v>
+      </c>
+      <c r="D13">
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="C14">
+        <v>7.64</v>
+      </c>
+      <c r="D14">
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="B15">
+        <v>0.97</v>
+      </c>
+      <c r="C15">
+        <v>8.25</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>0.96299999999999997</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="C16">
-        <v>9.5</v>
+        <v>8.69</v>
       </c>
       <c r="D16">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17">
-        <v>0.95899999999999996</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>9.24</v>
       </c>
       <c r="D17">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>7</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>0.95299999999999996</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>11.2</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="C20">
+        <v>11.97</v>
+      </c>
+      <c r="D20">
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -13108,8 +16979,11 @@
       <c r="A32" t="s">
         <v>23</v>
       </c>
+      <c r="B32">
+        <v>0.98199999999999998</v>
+      </c>
       <c r="C32">
-        <v>7.28</v>
+        <v>7.2729999999999997</v>
       </c>
       <c r="D32">
         <v>8</v>
@@ -13119,8 +16993,11 @@
       <c r="A33" t="s">
         <v>19</v>
       </c>
+      <c r="B33">
+        <v>0.98</v>
+      </c>
       <c r="C33">
-        <v>7.48</v>
+        <v>7.3140000000000001</v>
       </c>
       <c r="D33">
         <v>7</v>
@@ -13130,8 +17007,11 @@
       <c r="A34" t="s">
         <v>20</v>
       </c>
+      <c r="B34">
+        <v>0.97699999999999998</v>
+      </c>
       <c r="C34">
-        <v>7.29</v>
+        <v>7.3330000000000002</v>
       </c>
       <c r="D34">
         <v>6</v>
@@ -13141,8 +17021,11 @@
       <c r="A35" t="s">
         <v>21</v>
       </c>
+      <c r="B35">
+        <v>0.97299999999999998</v>
+      </c>
       <c r="C35">
-        <v>7.35</v>
+        <v>7.484</v>
       </c>
       <c r="D35">
         <v>5</v>
@@ -13152,8 +17035,11 @@
       <c r="A36" t="s">
         <v>22</v>
       </c>
+      <c r="B36">
+        <v>0.96699999999999997</v>
+      </c>
       <c r="C36">
-        <v>7.33</v>
+        <v>7.492</v>
       </c>
       <c r="D36">
         <v>4</v>
@@ -13264,13 +17150,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -13344,18 +17230,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
@@ -13401,15 +17287,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -13445,10 +17331,10 @@
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>0.95062286547099994</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>0.95979064280399995</v>
       </c>
       <c r="D5" s="2">
@@ -13462,16 +17348,16 @@
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>0.95167373629100005</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>0.96013464210300004</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>0.97083434282400005</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>0.97715601303999999</v>
       </c>
     </row>
@@ -13479,16 +17365,16 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>0.946270211631</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>0.953918270264</v>
       </c>
       <c r="D7" s="2">
         <v>0.96341805595100005</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>0.96897931243000002</v>
       </c>
     </row>
@@ -13526,16 +17412,16 @@
       <c r="A11" s="2">
         <v>1</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>0.95062286547099994</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>0.95979064280399995</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>0.97165183246800002</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>0.97884783193900005</v>
       </c>
     </row>
@@ -13543,16 +17429,16 @@
       <c r="A12" s="2">
         <v>3</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>0.953057617814</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>0.96172900468599998</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>0.97264208566400001</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>0.97899230205700005</v>
       </c>
     </row>
@@ -13560,16 +17446,16 @@
       <c r="A13" s="2">
         <v>5</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>0.95112965461999999</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>0.95896645829000005</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>0.96863778632099995</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>0.974179524992</v>
       </c>
     </row>
@@ -13607,16 +17493,16 @@
       <c r="A19" s="2">
         <v>1</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>0.95034556060200004</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>0.96728997610599998</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>0.97640514437899995</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>0.98203724037899998</v>
       </c>
     </row>
@@ -13624,16 +17510,16 @@
       <c r="A20" s="2">
         <v>3</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>0.95364561970200001</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>0.968891950389</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>0.976656454447</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>0.98122417365299996</v>
       </c>
     </row>
@@ -13641,16 +17527,16 @@
       <c r="A21" s="2">
         <v>5</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>0.94934858447199999</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>0.96207365214100005</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>0.96835268954700005</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>0.97179109837800004</v>
       </c>
       <c r="J21" s="2" t="s">
@@ -13669,10 +17555,10 @@
       <c r="J23" s="2">
         <v>25</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="3">
         <v>0.946270211631</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="3">
         <v>0.95112965461999999</v>
       </c>
     </row>
@@ -13686,10 +17572,10 @@
       <c r="J24" s="2">
         <v>30</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="4">
         <v>0.953918270264</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="3">
         <v>0.95896645829000005</v>
       </c>
     </row>
@@ -13706,7 +17592,7 @@
       <c r="K25" s="2">
         <v>0.96341805595100005</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="3">
         <v>0.96863778632099995</v>
       </c>
     </row>
@@ -13726,10 +17612,10 @@
       <c r="J26" s="2">
         <v>50</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="3">
         <v>0.96897931243000002</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="3">
         <v>0.974179524992</v>
       </c>
     </row>
@@ -13737,16 +17623,16 @@
       <c r="A27" s="2">
         <v>1</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>0.95695258056400001</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>0.96448952969500001</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>0.97023159531500003</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>0.97494480888799995</v>
       </c>
     </row>
@@ -13754,16 +17640,16 @@
       <c r="A28" s="2">
         <v>3</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>0.95862425465199996</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>0.96578213684299996</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>0.97112724154899999</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>0.97545865249599994</v>
       </c>
       <c r="J28" s="2" t="s">
@@ -13774,16 +17660,16 @@
       <c r="A29" s="2">
         <v>5</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>0.95694633498699999</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>0.96361196141000005</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>0.968525931264</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>0.972528283193</v>
       </c>
       <c r="K29" s="2" t="s">
@@ -13797,10 +17683,10 @@
       <c r="J30" s="2">
         <v>25</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="3">
         <v>0.95167373600000005</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30" s="3">
         <v>0.953057617814</v>
       </c>
     </row>
@@ -13808,10 +17694,10 @@
       <c r="J31" s="2">
         <v>30</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="4">
         <v>0.96013464210300004</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L31" s="3">
         <v>0.96172900468599998</v>
       </c>
     </row>
@@ -13819,10 +17705,10 @@
       <c r="J32" s="2">
         <v>40</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="3">
         <v>0.97083434282400005</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L32" s="3">
         <v>0.97264208566400001</v>
       </c>
     </row>
@@ -13830,10 +17716,10 @@
       <c r="J33" s="2">
         <v>50</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="3">
         <v>0.97715601303999999</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L33" s="3">
         <v>0.97899230205700005</v>
       </c>
     </row>
@@ -13854,10 +17740,10 @@
       <c r="J37" s="2">
         <v>25</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K37" s="3">
         <v>0.95062286547099994</v>
       </c>
-      <c r="L37" s="4">
+      <c r="L37" s="3">
         <v>0.95062286547099994</v>
       </c>
     </row>
@@ -13865,10 +17751,10 @@
       <c r="J38" s="2">
         <v>30</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K38" s="4">
         <v>0.95979064280399995</v>
       </c>
-      <c r="L38" s="4">
+      <c r="L38" s="3">
         <v>0.95979064280399995</v>
       </c>
     </row>
@@ -13879,7 +17765,7 @@
       <c r="K39" s="2">
         <v>0.97165183246800002</v>
       </c>
-      <c r="L39" s="4">
+      <c r="L39" s="3">
         <v>0.97165183246800002</v>
       </c>
     </row>
@@ -13890,7 +17776,7 @@
       <c r="K40" s="2">
         <v>0.97884783193900005</v>
       </c>
-      <c r="L40" s="4">
+      <c r="L40" s="3">
         <v>0.97884783193900005</v>
       </c>
     </row>
@@ -13907,13 +17793,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="143" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showRuler="0" zoomScale="143" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="6"/>
+    <col min="1" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="86" customHeight="1" x14ac:dyDescent="0.2">
@@ -13932,52 +17818,52 @@
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>7</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0.95364561970200001</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>0.95034556060200004</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>25</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>0.953057617814</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>0.95062286547099994</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>60</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>0.95862425465199996</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>0.95695258056400001</v>
       </c>
     </row>

--- a/Experiments/MakeGraph.xlsx
+++ b/Experiments/MakeGraph.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="76">
   <si>
     <t>SSIM</t>
   </si>
@@ -141,9 +141,6 @@
     <t>OpenCL(GPU)</t>
   </si>
   <si>
-    <t>cell20_num30</t>
-  </si>
-  <si>
     <t>Comparison between Blur and MedianBlur</t>
   </si>
   <si>
@@ -209,6 +206,60 @@
   <si>
     <t>head720_cells20_25</t>
   </si>
+  <si>
+    <t>cell 20</t>
+  </si>
+  <si>
+    <t>num_components</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>speed up</t>
+  </si>
+  <si>
+    <t>subtract</t>
+  </si>
+  <si>
+    <t>cell 30</t>
+  </si>
+  <si>
+    <t>cell 10</t>
+  </si>
+  <si>
+    <t>cell 5</t>
+  </si>
+  <si>
+    <t>cells dimension</t>
+  </si>
+  <si>
+    <t>5*5</t>
+  </si>
+  <si>
+    <t>10*10</t>
+  </si>
+  <si>
+    <t>20*20</t>
+  </si>
+  <si>
+    <t>30*30</t>
+  </si>
+  <si>
+    <t>GPU</t>
+  </si>
+  <si>
+    <t>cell20_50</t>
+  </si>
+  <si>
+    <t>cell20_30</t>
+  </si>
+  <si>
+    <t>cell30_50</t>
+  </si>
+  <si>
+    <t>cell30_90</t>
+  </si>
 </sst>
 </file>
 
@@ -271,8 +322,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -294,6 +348,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1168,11 +1225,1186 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Blur and Median Blur Comparison</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" baseline="0"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>with Kernel Size 5</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.152146304236779"/>
+          <c:y val="0.214263063600202"/>
+          <c:w val="0.833896387980626"/>
+          <c:h val="0.522299965220238"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$K$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>blur</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$J$23:$J$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$K$23:$K$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.946270211631</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.953918270264</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.963418055951</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96897931243</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$L$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>medianBlur</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$J$23:$J$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$L$23:$L$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.95112965462</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95896645829</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.968637786321</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.974179524992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="629102784"/>
+        <c:axId val="629105632"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="629102784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Components</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.353970513373958"/>
+              <c:y val="0.804759128226261"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="629105632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="629105632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>SSIM</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="629102784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.368623048944212"/>
+          <c:y val="0.875306514921687"/>
+          <c:w val="0.491429133051306"/>
+          <c:h val="0.124694487043201"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Kernel Size Comparison for Median Blur cell(10)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12579354177512"/>
+          <c:y val="0.145491589123639"/>
+          <c:w val="0.862450969429805"/>
+          <c:h val="0.602632995956051"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$B$18:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$19:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.950345560602</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.967289976106</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.976405144379</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.982037240379</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$B$18:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$20:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.953645619702</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.968891950389</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.976656454447</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.981224173653</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$B$18:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$21:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.949348584472</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.962073652141</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.968352689547</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.971791098378</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="629055808"/>
+        <c:axId val="629059200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="629055808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Components</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.386411617607093"/>
+              <c:y val="0.818482462452719"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="629059200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="629059200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>SSIM</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0117554887950754"/>
+              <c:y val="0.410445723529785"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="629055808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Kernel Size Comparison For Median Blur cell(30)</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1751,7 +2983,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2952,6 +4184,753 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number of Eigenvectors vs SSIM</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Cells 30*30</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.964</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.956</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.949</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.941</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.937</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Cells 20*20</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$13:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.974</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.972</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.967</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.963</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.959</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.953</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.945</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Cells 10*10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$24:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.977</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.973</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.968</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.946</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Cells 5*5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$32:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$32:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.977</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.973</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.967</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="790036784"/>
+        <c:axId val="790017344"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="790036784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Eigenvectors</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="790017344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="790017344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>SSIM</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="790036784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
@@ -2990,13 +4969,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>25.0</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.0</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3051,13 +5030,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>25.0</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.0</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3132,6 +5111,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3266,6 +5246,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3340,6 +5321,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3406,7 +5388,375 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$G$8:$G$11</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5*5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10*10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20*20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30*30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$H$8:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.7777</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4974</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1534</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="791801888"/>
+        <c:axId val="791850960"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="791801888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cells</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Dimension</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="791850960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="791850960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> FPS(GPU)/FPS(only_CPU)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.324186351706037"/>
+              <c:y val="0.883310002916302"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="791801888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4006,7 +6356,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4051,6 +6401,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4634,7 +6985,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5197,7 +7548,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5770,1178 +8121,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Blur and Median Blur Comparison</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" baseline="0"/>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>with Kernel Size 5</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.152146304236779"/>
-          <c:y val="0.214263063600202"/>
-          <c:w val="0.833896387980626"/>
-          <c:h val="0.522299965220238"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$K$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>blur</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet4!$J$23:$J$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet4!$K$23:$K$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.946270211631</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.953918270264</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.963418055951</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.96897931243</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$L$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>medianBlur</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet4!$J$23:$J$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet4!$L$23:$L$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.95112965462</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.95896645829</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.968637786321</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.974179524992</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="629102784"/>
-        <c:axId val="629105632"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="629102784"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Number of Components</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.353970513373958"/>
-              <c:y val="0.804759128226261"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="629105632"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="629105632"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>SSIM</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="629102784"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.368623048944212"/>
-          <c:y val="0.875306514921687"/>
-          <c:w val="0.491429133051306"/>
-          <c:h val="0.124694487043201"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Kernel Size Comparison for Median Blur cell(10)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1200">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.12579354177512"/>
-          <c:y val="0.145491589123639"/>
-          <c:w val="0.862450969429805"/>
-          <c:h val="0.602632995956051"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$A$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet4!$B$18:$E$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet4!$B$19:$E$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.950345560602</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.967289976106</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.976405144379</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.982037240379</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet4!$B$18:$E$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet4!$B$20:$E$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.953645619702</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.968891950389</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.976656454447</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.981224173653</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$A$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet4!$B$18:$E$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet4!$B$21:$E$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.949348584472</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.962073652141</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.968352689547</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.971791098378</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="629055808"/>
-        <c:axId val="629059200"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="629055808"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Number of</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Components</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.386411617607093"/>
-              <c:y val="0.818482462452719"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="629059200"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="629059200"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>SSIM</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.0117554887950754"/>
-              <c:y val="0.410445723529785"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="629055808"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -7023,6 +8202,86 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8891,6 +10150,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
   <cs:axisTitle>
@@ -9371,7 +11636,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9398,8 +11663,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9500,7 +11765,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -9532,10 +11797,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -9575,22 +11840,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -9695,8 +11961,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9828,19 +12094,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -9854,6 +12121,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -10377,7 +12655,7 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -10581,22 +12859,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -10701,8 +12980,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -10834,19 +13113,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -12927,16 +15207,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>7780</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>634940</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>15679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>180754</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>95957</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>807914</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>111636</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12950,6 +15230,91 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="/Users/yinghanxu/Library/Group Containers/UBF8T346G9.Office/msoclip1/01/clip_image001.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3911600" y="203200"/>
+          <a:ext cx="88900" cy="139700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>131793</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>30193</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>83868</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>155755</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -16145,6 +18510,41 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>160828</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>31135</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>614446</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>135750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>43083</xdr:colOff>
       <xdr:row>13</xdr:row>
@@ -16356,7 +18756,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16654,10 +19054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="81" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView showRuler="0" zoomScale="106" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16665,7 +19065,7 @@
     <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -16676,9 +19076,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2">
         <v>0.96399999999999997</v>
@@ -16689,8 +19089,11 @@
       <c r="D2">
         <v>90</v>
       </c>
+      <c r="E2">
+        <v>0.96399999999999997</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -16703,8 +19106,11 @@
       <c r="D3">
         <v>80</v>
       </c>
+      <c r="E3">
+        <v>0.96</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -16717,8 +19123,11 @@
       <c r="D4">
         <v>70</v>
       </c>
+      <c r="E4">
+        <v>0.95599999999999996</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -16731,8 +19140,11 @@
       <c r="D5">
         <v>60</v>
       </c>
+      <c r="E5">
+        <v>0.94899999999999995</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -16745,8 +19157,11 @@
       <c r="D6">
         <v>50</v>
       </c>
+      <c r="E6">
+        <v>0.94099999999999995</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -16759,8 +19174,11 @@
       <c r="D7">
         <v>40</v>
       </c>
+      <c r="E7">
+        <v>0.93700000000000006</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>0</v>
       </c>
@@ -16771,9 +19189,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13">
         <v>0.97399999999999998</v>
@@ -16785,7 +19203,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -16799,7 +19217,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -16813,7 +19231,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -16871,7 +19289,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>0.94499999999999995</v>
@@ -17138,7 +19556,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17150,13 +19568,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -17173,7 +19591,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1">
         <v>7.82</v>
@@ -17195,7 +19613,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1">
         <v>10.34</v>
@@ -17215,51 +19633,683 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="168" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="F1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="2"/>
     <col min="3" max="3" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="2"/>
+    <col min="4" max="6" width="10.83203125" style="2"/>
+    <col min="7" max="7" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.83203125" style="2"/>
+    <col min="10" max="10" width="15.6640625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="D4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.11</v>
-      </c>
-      <c r="C3" s="2">
-        <v>7.1999999999999995E-2</v>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3.19</v>
+      </c>
+      <c r="C5" s="3">
+        <v>7.4870000000000001</v>
+      </c>
+      <c r="D5" s="3">
+        <f>C5-B5</f>
+        <v>4.2970000000000006</v>
+      </c>
+      <c r="E5" s="3">
+        <f>D5/B5</f>
+        <v>1.3470219435736679</v>
+      </c>
+      <c r="F5" s="3">
+        <f>AVERAGE(E5:E9)</f>
+        <v>1.7777446640885795</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2.85</v>
+      </c>
+      <c r="C6" s="3">
+        <v>7.484</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" ref="D6:D9" si="0">C6-B6</f>
+        <v>4.6340000000000003</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" ref="E6:E9" si="1">D6/B6</f>
+        <v>1.6259649122807018</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2.57</v>
+      </c>
+      <c r="C7" s="3">
+        <v>7.3330000000000002</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>4.7629999999999999</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="1"/>
+        <v>1.853307392996109</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="C8" s="3">
+        <v>7.3140000000000001</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>4.8040000000000003</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9139442231075701</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2.7776999999999998</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1.2905100000000001E-4</v>
+      </c>
+      <c r="L8" s="10">
+        <v>6.9375000000000006E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2.31</v>
+      </c>
+      <c r="C9" s="3">
+        <v>7.2729999999999997</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>4.9629999999999992</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="1"/>
+        <v>2.148484848484848</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2.4973999999999998</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="10">
+        <v>6.8322099999999994E-5</v>
+      </c>
+      <c r="L9" s="10">
+        <v>4.4934500000000002E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2.1534</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1.8004</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1.38195E-4</v>
+      </c>
+      <c r="L11" s="10">
+        <v>7.4969900000000002E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="3">
+        <v>2.7786299999999999E-4</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1.15605E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3">
+        <v>6.17</v>
+      </c>
+      <c r="C13" s="3">
+        <v>13.47</v>
+      </c>
+      <c r="D13" s="3">
+        <f>C13-B13</f>
+        <v>7.3000000000000007</v>
+      </c>
+      <c r="E13" s="3">
+        <f>D13/B13</f>
+        <v>1.1831442463533226</v>
+      </c>
+      <c r="F13" s="3">
+        <f>AVERAGE(E13:E17)</f>
+        <v>1.4974317661696785</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3">
+        <v>5.81</v>
+      </c>
+      <c r="C14" s="3">
+        <v>12.37</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14:D17" si="2">C14-B14</f>
+        <v>6.56</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" ref="E14:E17" si="3">D14/B14</f>
+        <v>1.1290877796901893</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="C15" s="3">
+        <v>11.71</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="2"/>
+        <v>7.0700000000000012</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5237068965517244</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="C16" s="3">
+        <v>11.15</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="2"/>
+        <v>7.0100000000000007</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="3"/>
+        <v>1.6932367149758456</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>19</v>
+      </c>
+      <c r="B17" s="3">
+        <v>3.57</v>
+      </c>
+      <c r="C17" s="3">
+        <v>10.56</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="2"/>
+        <v>6.99</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="3"/>
+        <v>1.9579831932773111</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>30</v>
+      </c>
+      <c r="B21" s="2">
+        <v>7.56</v>
+      </c>
+      <c r="C21" s="2">
+        <v>11.26</v>
+      </c>
+      <c r="D21" s="2">
+        <f>C21-B21</f>
+        <v>3.7</v>
+      </c>
+      <c r="E21" s="2">
+        <f>D21/B21</f>
+        <v>0.48941798941798947</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1.1534</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2">
+        <v>6.68</v>
+      </c>
+      <c r="C22" s="2">
+        <v>10.01</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" ref="D22:D27" si="4">C22-B22</f>
+        <v>3.33</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" ref="E22:E27" si="5">D22/B22</f>
+        <v>0.49850299401197606</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>40</v>
+      </c>
+      <c r="B23" s="2">
+        <v>6.36</v>
+      </c>
+      <c r="C23" s="2">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="4"/>
+        <v>3.0099999999999989</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="5"/>
+        <v>0.47327044025157211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>45</v>
+      </c>
+      <c r="B24" s="2">
+        <v>5.85</v>
+      </c>
+      <c r="C24" s="2">
+        <v>8.89</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="4"/>
+        <v>3.0400000000000009</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="5"/>
+        <v>0.51965811965811981</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>50</v>
+      </c>
+      <c r="B25" s="2">
+        <v>5.38</v>
+      </c>
+      <c r="C25" s="2">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="4"/>
+        <v>3.0699999999999994</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="5"/>
+        <v>0.57063197026022294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>55</v>
+      </c>
+      <c r="B26" s="2">
+        <v>5.05</v>
+      </c>
+      <c r="C26" s="2">
+        <v>7.96</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="4"/>
+        <v>2.91</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="5"/>
+        <v>0.57623762376237631</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>60</v>
+      </c>
+      <c r="B27" s="2">
+        <v>4.67</v>
+      </c>
+      <c r="C27" s="2">
+        <v>7.51</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="4"/>
+        <v>2.84</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="5"/>
+        <v>0.60813704496788001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>40</v>
+      </c>
+      <c r="B31" s="3">
+        <v>9.51</v>
+      </c>
+      <c r="C31" s="3">
+        <v>15.76</v>
+      </c>
+      <c r="D31" s="3">
+        <f>C31-B31</f>
+        <v>6.25</v>
+      </c>
+      <c r="E31" s="2">
+        <f>D31/B31</f>
+        <v>0.65720294426919035</v>
+      </c>
+      <c r="F31" s="2">
+        <f>AVERAGE(E31:E36)</f>
+        <v>0.80042644423113807</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>50</v>
+      </c>
+      <c r="B32" s="3">
+        <v>8.35</v>
+      </c>
+      <c r="C32" s="3">
+        <v>14.52</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" ref="D32:D36" si="6">C32-B32</f>
+        <v>6.17</v>
+      </c>
+      <c r="E32" s="3">
+        <f t="shared" ref="E32:E36" si="7">D32/B32</f>
+        <v>0.73892215568862274</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>60</v>
+      </c>
+      <c r="B33" s="3">
+        <v>7.26</v>
+      </c>
+      <c r="C33" s="3">
+        <v>13.35</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="6"/>
+        <v>6.09</v>
+      </c>
+      <c r="E33" s="3">
+        <f t="shared" si="7"/>
+        <v>0.83884297520661155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>70</v>
+      </c>
+      <c r="B34" s="3">
+        <v>6.32</v>
+      </c>
+      <c r="C34" s="3">
+        <v>11.83</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" si="6"/>
+        <v>5.51</v>
+      </c>
+      <c r="E34" s="3">
+        <f t="shared" si="7"/>
+        <v>0.87183544303797456</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>80</v>
+      </c>
+      <c r="B35" s="3">
+        <v>6.07</v>
+      </c>
+      <c r="C35" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="6"/>
+        <v>5.129999999999999</v>
+      </c>
+      <c r="E35" s="3">
+        <f t="shared" si="7"/>
+        <v>0.84514003294892892</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>90</v>
+      </c>
+      <c r="B36" s="3">
+        <v>5.69</v>
+      </c>
+      <c r="C36" s="3">
+        <v>10.53</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" si="6"/>
+        <v>4.839999999999999</v>
+      </c>
+      <c r="E36" s="3">
+        <f t="shared" si="7"/>
+        <v>0.85061511423550062</v>
       </c>
     </row>
   </sheetData>
@@ -17267,6 +20317,7 @@
     <mergeCell ref="B1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17287,30 +20338,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -17331,10 +20382,10 @@
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>0.95062286547099994</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>0.95979064280399995</v>
       </c>
       <c r="D5" s="2">
@@ -17348,16 +20399,16 @@
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>0.95167373629100005</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>0.96013464210300004</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>0.97083434282400005</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>0.97715601303999999</v>
       </c>
     </row>
@@ -17365,33 +20416,33 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>0.946270211631</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>0.953918270264</v>
       </c>
       <c r="D7" s="2">
         <v>0.96341805595100005</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>0.96897931243000002</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -17412,16 +20463,16 @@
       <c r="A11" s="2">
         <v>1</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>0.95062286547099994</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <v>0.95979064280399995</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4">
         <v>0.97165183246800002</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="4">
         <v>0.97884783193900005</v>
       </c>
     </row>
@@ -17429,16 +20480,16 @@
       <c r="A12" s="2">
         <v>3</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <v>0.953057617814</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="4">
         <v>0.96172900468599998</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <v>0.97264208566400001</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>0.97899230205700005</v>
       </c>
     </row>
@@ -17446,33 +20497,33 @@
       <c r="A13" s="2">
         <v>5</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>0.95112965461999999</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <v>0.95896645829000005</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4">
         <v>0.96863778632099995</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>0.974179524992</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -17493,16 +20544,16 @@
       <c r="A19" s="2">
         <v>1</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <v>0.95034556060200004</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="4">
         <v>0.96728997610599998</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="4">
         <v>0.97640514437899995</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="4">
         <v>0.98203724037899998</v>
       </c>
     </row>
@@ -17510,16 +20561,16 @@
       <c r="A20" s="2">
         <v>3</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="4">
         <v>0.95364561970200001</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="4">
         <v>0.968891950389</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="4">
         <v>0.976656454447</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="4">
         <v>0.98122417365299996</v>
       </c>
     </row>
@@ -17527,64 +20578,64 @@
       <c r="A21" s="2">
         <v>5</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="4">
         <v>0.94934858447199999</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="4">
         <v>0.96207365214100005</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="4">
         <v>0.96835268954700005</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="4">
         <v>0.97179109837800004</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J23" s="2">
         <v>25</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="4">
         <v>0.946270211631</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="4">
         <v>0.95112965461999999</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J24" s="2">
         <v>30</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="5">
         <v>0.953918270264</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="4">
         <v>0.95896645829000005</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J25" s="2">
         <v>40</v>
@@ -17592,7 +20643,7 @@
       <c r="K25" s="2">
         <v>0.96341805595100005</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="4">
         <v>0.96863778632099995</v>
       </c>
     </row>
@@ -17612,10 +20663,10 @@
       <c r="J26" s="2">
         <v>50</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="4">
         <v>0.96897931243000002</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="4">
         <v>0.974179524992</v>
       </c>
     </row>
@@ -17623,16 +20674,16 @@
       <c r="A27" s="2">
         <v>1</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="4">
         <v>0.95695258056400001</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="4">
         <v>0.96448952969500001</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="4">
         <v>0.97023159531500003</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="4">
         <v>0.97494480888799995</v>
       </c>
     </row>
@@ -17640,53 +20691,53 @@
       <c r="A28" s="2">
         <v>3</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="4">
         <v>0.95862425465199996</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="4">
         <v>0.96578213684299996</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="4">
         <v>0.97112724154899999</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="4">
         <v>0.97545865249599994</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>5</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="4">
         <v>0.95694633498699999</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="4">
         <v>0.96361196141000005</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="4">
         <v>0.968525931264</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="4">
         <v>0.972528283193</v>
       </c>
       <c r="K29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L29" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J30" s="2">
         <v>25</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="4">
         <v>0.95167373600000005</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L30" s="4">
         <v>0.953057617814</v>
       </c>
     </row>
@@ -17694,10 +20745,10 @@
       <c r="J31" s="2">
         <v>30</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="5">
         <v>0.96013464210300004</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L31" s="4">
         <v>0.96172900468599998</v>
       </c>
     </row>
@@ -17705,10 +20756,10 @@
       <c r="J32" s="2">
         <v>40</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="4">
         <v>0.97083434282400005</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="4">
         <v>0.97264208566400001</v>
       </c>
     </row>
@@ -17716,34 +20767,34 @@
       <c r="J33" s="2">
         <v>50</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="4">
         <v>0.97715601303999999</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="4">
         <v>0.97899230205700005</v>
       </c>
     </row>
     <row r="35" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J35" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="10:12" x14ac:dyDescent="0.2">
       <c r="K36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L36" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="37" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J37" s="2">
         <v>25</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37" s="4">
         <v>0.95062286547099994</v>
       </c>
-      <c r="L37" s="3">
+      <c r="L37" s="4">
         <v>0.95062286547099994</v>
       </c>
     </row>
@@ -17751,10 +20802,10 @@
       <c r="J38" s="2">
         <v>30</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K38" s="5">
         <v>0.95979064280399995</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L38" s="4">
         <v>0.95979064280399995</v>
       </c>
     </row>
@@ -17765,7 +20816,7 @@
       <c r="K39" s="2">
         <v>0.97165183246800002</v>
       </c>
-      <c r="L39" s="3">
+      <c r="L39" s="4">
         <v>0.97165183246800002</v>
       </c>
     </row>
@@ -17776,7 +20827,7 @@
       <c r="K40" s="2">
         <v>0.97884783193900005</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L40" s="4">
         <v>0.97884783193900005</v>
       </c>
     </row>
@@ -17799,71 +20850,71 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="5"/>
+    <col min="1" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="86" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="A1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="5">
+      <c r="A3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="6">
         <v>7</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>0.95364561970200001</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>0.95034556060200004</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="A4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="6">
         <v>25</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>0.953057617814</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>0.95062286547099994</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="A5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="6">
         <v>60</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>0.95862425465199996</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>0.95695258056400001</v>
       </c>
     </row>

--- a/Experiments/MakeGraph.xlsx
+++ b/Experiments/MakeGraph.xlsx
@@ -19636,7 +19636,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="F1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Experiments/MakeGraph.xlsx
+++ b/Experiments/MakeGraph.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -895,11 +895,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1150270464"/>
-        <c:axId val="-1150266832"/>
+        <c:axId val="-1149418176"/>
+        <c:axId val="-1149414544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1150270464"/>
+        <c:axId val="-1149418176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1005,12 +1005,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1150266832"/>
+        <c:crossAx val="-1149414544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1150266832"/>
+        <c:axId val="-1149414544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -1131,7 +1131,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1150270464"/>
+        <c:crossAx val="-1149418176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1535,11 +1535,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1181499488"/>
-        <c:axId val="-1181496640"/>
+        <c:axId val="-1150568304"/>
+        <c:axId val="-1150564912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1181499488"/>
+        <c:axId val="-1150568304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1650,7 +1650,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1181496640"/>
+        <c:crossAx val="-1150564912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1658,7 +1658,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1181496640"/>
+        <c:axId val="-1150564912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1764,7 +1764,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1181499488"/>
+        <c:crossAx val="-1150568304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2114,11 +2114,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1157089680"/>
-        <c:axId val="-1157385168"/>
+        <c:axId val="-1150738720"/>
+        <c:axId val="-1150735328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1157089680"/>
+        <c:axId val="-1150738720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2224,7 +2224,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1157385168"/>
+        <c:crossAx val="-1150735328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2232,7 +2232,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1157385168"/>
+        <c:axId val="-1150735328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2337,7 +2337,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1157089680"/>
+        <c:crossAx val="-1150738720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2668,11 +2668,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1181466240"/>
-        <c:axId val="-1181432928"/>
+        <c:axId val="-1177128912"/>
+        <c:axId val="-1181325968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1181466240"/>
+        <c:axId val="-1177128912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2778,7 +2778,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1181432928"/>
+        <c:crossAx val="-1181325968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2786,7 +2786,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1181432928"/>
+        <c:axId val="-1181325968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2891,7 +2891,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1181466240"/>
+        <c:crossAx val="-1177128912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3026,6 +3026,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3283,11 +3284,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1181412224"/>
-        <c:axId val="-1181408832"/>
+        <c:axId val="-1151081968"/>
+        <c:axId val="-1151078576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1181412224"/>
+        <c:axId val="-1151081968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3398,7 +3399,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1181408832"/>
+        <c:crossAx val="-1151078576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3406,7 +3407,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1181408832"/>
+        <c:axId val="-1151078576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3519,7 +3520,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1181412224"/>
+        <c:crossAx val="-1151081968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3533,6 +3534,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3639,6 +3641,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3896,11 +3899,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1150534784"/>
-        <c:axId val="-1150531392"/>
+        <c:axId val="-1181062352"/>
+        <c:axId val="-1181058960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1150534784"/>
+        <c:axId val="-1181062352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4006,7 +4009,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1150531392"/>
+        <c:crossAx val="-1181058960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4014,7 +4017,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1150531392"/>
+        <c:axId val="-1181058960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4127,7 +4130,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1150534784"/>
+        <c:crossAx val="-1181062352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4231,9 +4234,87 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+              <a:t>Comparison between smoothed</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0"/>
+              <a:t> and unsmoothed results</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.117096534691638"/>
+          <c:y val="0.028038858472574"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.165260333245942"/>
+          <c:y val="0.147904978442828"/>
+          <c:w val="0.792769977461946"/>
+          <c:h val="0.619473318376822"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -4370,16 +4451,80 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1157340928"/>
-        <c:axId val="-1157338608"/>
+        <c:axId val="-1149290880"/>
+        <c:axId val="-1149288560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1157340928"/>
+        <c:axId val="-1149290880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>NUmber of Components</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.39196186816891"/>
+              <c:y val="0.831392261790211"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4417,7 +4562,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1157338608"/>
+        <c:crossAx val="-1149288560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4425,7 +4570,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1157338608"/>
+        <c:axId val="-1149288560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4445,6 +4590,70 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>SSIM</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0167878757168445"/>
+              <c:y val="0.412639269782758"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4475,7 +4684,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1157340928"/>
+        <c:crossAx val="-1149290880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4489,6 +4698,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.345758858248201"/>
+          <c:y val="0.897774443206041"/>
+          <c:w val="0.34765377319624"/>
+          <c:h val="0.0882061275576719"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4552,6 +4771,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -4718,11 +4938,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1150173120"/>
-        <c:axId val="-1150170272"/>
+        <c:axId val="-1149264864"/>
+        <c:axId val="-1149261472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1150173120"/>
+        <c:axId val="-1149264864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4828,7 +5048,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1150170272"/>
+        <c:crossAx val="-1149261472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4836,7 +5056,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1150170272"/>
+        <c:axId val="-1149261472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4949,7 +5169,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1150173120"/>
+        <c:crossAx val="-1149264864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5572,11 +5792,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1181549424"/>
-        <c:axId val="-1176968736"/>
+        <c:axId val="-1150766480"/>
+        <c:axId val="-1150817536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1181549424"/>
+        <c:axId val="-1150766480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5664,12 +5884,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1176968736"/>
+        <c:crossAx val="-1150817536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1176968736"/>
+        <c:axId val="-1150817536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="17.0"/>
@@ -5787,7 +6007,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1181549424"/>
+        <c:crossAx val="-1150766480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6312,11 +6532,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1175545216"/>
-        <c:axId val="-1177706752"/>
+        <c:axId val="-1150354112"/>
+        <c:axId val="-1150336928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1175545216"/>
+        <c:axId val="-1150354112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6432,12 +6652,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1177706752"/>
+        <c:crossAx val="-1150336928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1177706752"/>
+        <c:axId val="-1150336928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6548,7 +6768,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1175545216"/>
+        <c:crossAx val="-1150354112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7061,11 +7281,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1179079904"/>
-        <c:axId val="-1179076272"/>
+        <c:axId val="-1150393296"/>
+        <c:axId val="-1150389664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1179079904"/>
+        <c:axId val="-1150393296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7177,12 +7397,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1179076272"/>
+        <c:crossAx val="-1150389664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1179076272"/>
+        <c:axId val="-1150389664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="17.0"/>
@@ -7309,7 +7529,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1179079904"/>
+        <c:crossAx val="-1150393296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7438,6 +7658,17 @@
               <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
+              <a:t>Relationship among memory cost, frame rate and result quality</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
               <a:t>(Figures shown are the number of eigenvectors)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400">
@@ -7446,7 +7677,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.213160756504348"/>
+          <c:y val="0.0128233063491926"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7483,10 +7721,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.103926462857108"/>
+          <c:x val="0.0884658736835877"/>
           <c:y val="0.122028889326953"/>
-          <c:w val="0.845766810573195"/>
-          <c:h val="0.642726608828149"/>
+          <c:w val="0.882872132787191"/>
+          <c:h val="0.691455093891845"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -7734,11 +7972,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1150244224"/>
-        <c:axId val="-1150241520"/>
+        <c:axId val="-1149381520"/>
+        <c:axId val="-1149379392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1150244224"/>
+        <c:axId val="-1149381520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7784,7 +8022,14 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.451942164963351"/>
+              <c:y val="0.87828440720278"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7851,12 +8096,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1150241520"/>
+        <c:crossAx val="-1149379392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1150241520"/>
+        <c:axId val="-1149379392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="3.0"/>
@@ -7903,7 +8148,14 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.020527077411109"/>
+              <c:y val="0.493108028177348"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7970,7 +8222,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1150244224"/>
+        <c:crossAx val="-1149381520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7984,7 +8236,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.169919119524127"/>
+          <c:y val="0.937689837943699"/>
+          <c:w val="0.666345850558533"/>
+          <c:h val="0.0546161782467854"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8066,9 +8327,80 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Reconstruction</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> comparison between normal CPU and CUDA</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.093163947958676"/>
+          <c:y val="0.106782744282744"/>
+          <c:w val="0.887422003329711"/>
+          <c:h val="0.729687576734821"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -8205,11 +8537,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1181248944"/>
-        <c:axId val="-1181246400"/>
+        <c:axId val="-1149329136"/>
+        <c:axId val="-1149325744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1181248944"/>
+        <c:axId val="-1149329136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8222,7 +8554,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -8235,17 +8567,25 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Number</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
                   <a:t> of components used in PCA</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1100"/>
+                <a:endParaRPr lang="en-US" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.378275443243438"/>
+              <c:y val="0.881723198061781"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8259,7 +8599,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -8312,7 +8652,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1181246400"/>
+        <c:crossAx val="-1149325744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8320,7 +8660,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1181246400"/>
+        <c:axId val="-1149325744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8361,7 +8701,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -8374,12 +8714,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>FPS</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8393,7 +8734,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -8440,7 +8781,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1181248944"/>
+        <c:crossAx val="-1149329136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8454,6 +8795,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.295945284901512"/>
+          <c:y val="0.929618208456791"/>
+          <c:w val="0.446937388650633"/>
+          <c:h val="0.0521905233519407"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8534,9 +8885,80 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Reconstruction comparison</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> between normal CPU and GPU (OpenCL)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.157547745337105"/>
+          <c:y val="0.211917605624388"/>
+          <c:w val="0.813761100142581"/>
+          <c:h val="0.593748407870009"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
@@ -8605,11 +9027,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="-1151196752"/>
-        <c:axId val="-1181596416"/>
+        <c:axId val="-1150382576"/>
+        <c:axId val="-1181292816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1151196752"/>
+        <c:axId val="-1150382576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8622,7 +9044,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -8635,17 +9057,25 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Cells</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
                   <a:t> Dimension</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0139548416927597"/>
+              <c:y val="0.315195668033354"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8659,7 +9089,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -8712,7 +9142,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1181596416"/>
+        <c:crossAx val="-1181292816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8720,7 +9150,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1181596416"/>
+        <c:axId val="-1181292816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8747,7 +9177,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -8760,14 +9190,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Average</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
                   <a:t> FPS(GPU)/FPS(only_CPU)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -8792,7 +9222,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -8838,7 +9268,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1151196752"/>
+        <c:crossAx val="-1150382576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9171,11 +9601,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1175627808"/>
-        <c:axId val="-1175137360"/>
+        <c:axId val="-1150764080"/>
+        <c:axId val="-1150760688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1175627808"/>
+        <c:axId val="-1150764080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9286,7 +9716,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1175137360"/>
+        <c:crossAx val="-1150760688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9294,7 +9724,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1175137360"/>
+        <c:axId val="-1150760688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9407,7 +9837,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1175627808"/>
+        <c:crossAx val="-1150764080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9532,6 +9962,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9789,11 +10220,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1157087584"/>
-        <c:axId val="-1157084464"/>
+        <c:axId val="-1150458304"/>
+        <c:axId val="-1150454912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1157087584"/>
+        <c:axId val="-1150458304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9904,7 +10335,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1157084464"/>
+        <c:crossAx val="-1150454912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9912,7 +10343,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1157084464"/>
+        <c:axId val="-1150454912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10025,7 +10456,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1157087584"/>
+        <c:crossAx val="-1150458304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18955,16 +19386,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1270000</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>168611</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>6483</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>689041</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>607977</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>54043</xdr:rowOff>
+      <xdr:rowOff>94575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18987,6 +19418,308 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.21918</cdr:x>
+      <cdr:y>0.32472</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.45284</cdr:x>
+      <cdr:y>0.428</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="994871" y="882482"/>
+          <a:ext cx="1060546" cy="280667"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>10*10 cells</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.49155</cdr:x>
+      <cdr:y>0.35367</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.8137</cdr:x>
+      <cdr:y>0.45694</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2231154" y="961154"/>
+          <a:ext cx="1462204" cy="280639"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>20*20 cells</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.75402</cdr:x>
+      <cdr:y>0.12622</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.93946</cdr:x>
+      <cdr:y>0.22948</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 3"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3422481" y="343012"/>
+          <a:ext cx="841696" cy="280640"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>30*30 cells</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -25866,15 +26599,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
+      <xdr:colOff>347980</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>162560</xdr:rowOff>
+      <xdr:rowOff>149860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>172720</xdr:rowOff>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25900,16 +26633,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>160828</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>31135</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>707064</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>3822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>614446</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>135750</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>791972</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>108438</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26478,7 +27211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A12" zoomScale="94" zoomScaleNormal="91" zoomScalePageLayoutView="91" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A12" zoomScale="94" zoomScaleNormal="91" zoomScalePageLayoutView="91" workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -27484,7 +28217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="125" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -27564,7 +28297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="B1" zoomScale="135" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" zoomScale="93" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -28774,7 +29507,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="113" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
